--- a/biology/Microbiologie/Bryophyllidae/Bryophyllidae.xlsx
+++ b/biology/Microbiologie/Bryophyllidae/Bryophyllidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryophyllidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Spathidiida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bryophyllum dérivé du grec βρυόεις / bryóeis, mousse, et φυλλ / fyllos, feuille, littéralement « feuille de mousse », en référence à l'habitat de ces organismes (les mousses) bien que certaines espèces vivent en eau douce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bryophyllum dérivé du grec βρυόεις / bryóeis, mousse, et φυλλ / fyllos, feuille, littéralement « feuille de mousse », en référence à l'habitat de ces organismes (les mousses) bien que certaines espèces vivent en eau douce.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryophyllidae sont des Spathidiida ayant un renflement buccal s'étendant méridionalement (c’est-à-dire comme des lignes méridiennes terrestres) ou en spirale jusqu'à l'extrémité postérieure du corps. 
 Leurs rangées ciliaires sont aussi disposées méridionalement, celles du côté gauche partiellement ou entièrement différenciées en brosse dorsale en avant.
-La brosse dorsale est soit isomorphe[note 1] (genres Bryophyllum et Neobiyophyllum), soit hétéromorphe[note 2] (genre Apobryophyllum) ; composée de trois rangées de cils (Bryophyllum) ou de plus de trois rangées (Neobryophyllum)[2].
+La brosse dorsale est soit isomorphe[note 1] (genres Bryophyllum et Neobiyophyllum), soit hétéromorphe[note 2] (genre Apobryophyllum) ; composée de trois rangées de cils (Bryophyllum) ou de plus de trois rangées (Neobryophyllum).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Bryophyllum vivent aussi bien dans des mousses que dans le neuston limnicole[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Bryophyllum vivent aussi bien dans des mousses que dans le neuston limnicole. 
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 janvier 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 janvier 2023) :
 Neobryophyllum Foissner, 2004
-Selon Foissner &amp; Lei (2004)[2] :
+Selon Foissner &amp; Lei (2004) :
 Apobryophyllum Foissner, 1998
 Bryophyllum Kahl, 1931
 Neobryophyllum Foissner, 2004</t>
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Bryophyllidae Foissner &amp; Lei, 2004[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Bryophyllidae Foissner &amp; Lei, 2004.
 </t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) W. Foissner et Y.-L. Lei, « Morphology and ontogenesis of some soil spathidiids (Ciliophora, Haptoria) », Linzer Biologische Beiträge, vol. 36, no 1,‎ 2004, p. 159-199 (ISSN 0253-116X, lire en ligne)</t>
         </is>
